--- a/Stocks/BEML.xlsx
+++ b/Stocks/BEML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1394.1499999999999</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1706.3796380805793</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1651.3067534000215</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>70.293298491795142</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>4.3000000000001819</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>28.400000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.15140845070423128</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1586.37194125717</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>64.554287387074055</v>
       </c>
       <c r="Y67">
         <v>57.091498268079732</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1792.1</v>
+      </c>
+      <c r="D83">
+        <v>1805</v>
+      </c>
+      <c r="E83">
+        <v>1774.5</v>
+      </c>
+      <c r="F83">
+        <v>1782</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1787.1666666666667</v>
+      </c>
+      <c r="H83">
+        <v>1795.8060202988395</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1824.8969144638179</v>
+      </c>
+      <c r="K83">
+        <v>1744.5913427987507</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>51.485813078762156</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>30.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.24590163934426229</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1764.4617153435793</v>
+      </c>
+      <c r="W83">
+        <v>1704.9721534089531</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>59.489561934626181</v>
+      </c>
+      <c r="Y83">
+        <v>58.033449282324383</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1779.8</v>
+      </c>
+      <c r="D84">
+        <v>1779.8</v>
+      </c>
+      <c r="E84">
+        <v>1710.1</v>
+      </c>
+      <c r="F84">
+        <v>1719.95</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1736.6166666666666</v>
+      </c>
+      <c r="H84">
+        <v>1766.2113434827529</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1814.8753779163028</v>
+      </c>
+      <c r="K84">
+        <v>1736.9265999545839</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>35.587624726288986</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>9.8500000000001364</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>69.700000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.14131994261119268</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>1757.6137591368747</v>
+      </c>
+      <c r="W84">
+        <v>1706.0816235268085</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>51.532135610066234</v>
+      </c>
+      <c r="Y84">
+        <v>56.733186547872755</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1731</v>
+      </c>
+      <c r="D85">
+        <v>1799</v>
+      </c>
+      <c r="E85">
+        <v>1727.15</v>
+      </c>
+      <c r="F85">
+        <v>1738</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1754.7166666666665</v>
+      </c>
+      <c r="H85">
+        <v>1760.4640050747098</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1811.3475161571243</v>
+      </c>
+      <c r="K85">
+        <v>1734.7540221868987</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>42.089825417706344</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.849999999999909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>71.849999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.15100904662491194</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1754.5962577312016</v>
+      </c>
+      <c r="W85">
+        <v>1708.4459477100079</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>46.150310021193718</v>
+      </c>
+      <c r="Y85">
+        <v>54.616611242536948</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1749</v>
+      </c>
+      <c r="D86">
+        <v>1778</v>
+      </c>
+      <c r="E86">
+        <v>1740.2</v>
+      </c>
+      <c r="F86">
+        <v>1772</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1763.3999999999999</v>
+      </c>
+      <c r="H86">
+        <v>1761.9320025373549</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1803.9369570110966</v>
+      </c>
+      <c r="K86">
+        <v>1735.964239478699</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>53.210914843316125</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>31.799999999999955</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>37.799999999999955</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.84126984126984106</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1757.273756541786</v>
+      </c>
+      <c r="W86">
+        <v>1713.1536552870443</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>44.120101254741712</v>
+      </c>
+      <c r="Y86">
+        <v>52.517309244977902</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1785</v>
+      </c>
+      <c r="D87">
+        <v>1863</v>
+      </c>
+      <c r="E87">
+        <v>1785</v>
+      </c>
+      <c r="F87">
+        <v>1849.95</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1832.6499999999999</v>
+      </c>
+      <c r="H87">
+        <v>1797.2910012686775</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1817.0620776752974</v>
+      </c>
+      <c r="K87">
+        <v>1746.8610751500992</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.820325568955937</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>64.950000000000045</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>78</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.83269230769230829</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>1771.5316401507421</v>
+      </c>
+      <c r="W87">
+        <v>1723.2867178583745</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>48.244922292367619</v>
+      </c>
+      <c r="Y87">
+        <v>51.662831854455845</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1857</v>
+      </c>
+      <c r="D88">
+        <v>1885</v>
+      </c>
+      <c r="E88">
+        <v>1826</v>
+      </c>
+      <c r="F88">
+        <v>1849</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1853.3333333333333</v>
+      </c>
+      <c r="H88">
+        <v>1825.3121673010055</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1832.1593937474536</v>
+      </c>
+      <c r="K88">
+        <v>1764.4475028945217</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>69.444776444437522</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>59</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.38983050847457629</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1783.4498493583203</v>
+      </c>
+      <c r="W88">
+        <v>1732.5988128318281</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>50.85103652649218</v>
+      </c>
+      <c r="Y88">
+        <v>51.500472788863114</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1860</v>
+      </c>
+      <c r="D89">
+        <v>1874</v>
+      </c>
+      <c r="E89">
+        <v>1837.8</v>
+      </c>
+      <c r="F89">
+        <v>1840</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1850.6000000000001</v>
+      </c>
+      <c r="H89">
+        <v>1837.9560836505029</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1841.4573062480194</v>
+      </c>
+      <c r="K89">
+        <v>1780.7480578068503</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>65.28628548875075</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.2000000000000455</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>36.200000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>6.0773480662984602E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1792.1498725339634</v>
+      </c>
+      <c r="W89">
+        <v>1740.5544563257668</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>51.595416208196639</v>
+      </c>
+      <c r="Y89">
+        <v>51.519461472729816</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1840</v>
+      </c>
+      <c r="D90">
+        <v>1848.9</v>
+      </c>
+      <c r="E90">
+        <v>1819.85</v>
+      </c>
+      <c r="F90">
+        <v>1840</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1836.25</v>
+      </c>
+      <c r="H90">
+        <v>1837.1030418252515</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1843.111238192904</v>
+      </c>
+      <c r="K90">
+        <v>1789.4373782942168</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>65.28628548875075</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>20.150000000000091</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>29.050000000000182</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.69363166953528277</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1799.5114306056614</v>
+      </c>
+      <c r="W90">
+        <v>1747.9207928942285</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>51.590637711432919</v>
+      </c>
+      <c r="Y90">
+        <v>51.533696720470438</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1849</v>
+      </c>
+      <c r="D91">
+        <v>1912.1</v>
+      </c>
+      <c r="E91">
+        <v>1848</v>
+      </c>
+      <c r="F91">
+        <v>1874</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1878.0333333333335</v>
+      </c>
+      <c r="H91">
+        <v>1857.5681875792925</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1858.4420741500364</v>
+      </c>
+      <c r="K91">
+        <v>1802.4512942288354</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>74.352062882552147</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>64.099999999999909</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.40561622464898656</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1810.9712105124827</v>
+      </c>
+      <c r="W91">
+        <v>1757.2599934205818</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>53.711217091900835</v>
+      </c>
+      <c r="Y91">
+        <v>51.969200794756517</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1889.9</v>
+      </c>
+      <c r="D92">
+        <v>1889.9</v>
+      </c>
+      <c r="E92">
+        <v>1845</v>
+      </c>
+      <c r="F92">
+        <v>1849</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1861.3</v>
+      </c>
+      <c r="H92">
+        <v>1859.4340937896463</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>1865.4327243389173</v>
+      </c>
+      <c r="K92">
+        <v>1811.906562177983</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>59.959635358439826</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>44.900000000000091</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>8.908685968819581E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1816.8217935105622</v>
+      </c>
+      <c r="W92">
+        <v>1764.0555494635016</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>52.766244047060582</v>
+      </c>
+      <c r="Y92">
+        <v>52.128609445217329</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1870</v>
+      </c>
+      <c r="D93">
+        <v>1884.9</v>
+      </c>
+      <c r="E93">
+        <v>1860.5</v>
+      </c>
+      <c r="F93">
+        <v>1861.1</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1868.8333333333333</v>
+      </c>
+      <c r="H93">
+        <v>1864.1337135614899</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>1869.7587855969357</v>
+      </c>
+      <c r="K93">
+        <v>1822.7051039162091</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>64.157208127671666</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.59999999999990905</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>24.400000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>2.4590163934422409E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1823.6338252781679</v>
+      </c>
+      <c r="W93">
+        <v>1771.24402728102</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>52.38979799714798</v>
+      </c>
+      <c r="Y93">
+        <v>52.180847155603459</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1877</v>
+      </c>
+      <c r="D94">
+        <v>1900.65</v>
+      </c>
+      <c r="E94">
+        <v>1845.6</v>
+      </c>
+      <c r="F94">
+        <v>1884.95</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1877.0666666666666</v>
+      </c>
+      <c r="H94">
+        <v>1870.6001901140783</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1876.6234999087278</v>
+      </c>
+      <c r="K94">
+        <v>1827.7928586014959</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>71.514757122408028</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>39.350000000000136</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>55.050000000000182</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.71480472297911002</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1833.0670829276805</v>
+      </c>
+      <c r="W94">
+        <v>1779.6666919268703</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>53.400391000810259</v>
+      </c>
+      <c r="Y94">
+        <v>52.42475592464482</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1882</v>
+      </c>
+      <c r="D95">
+        <v>1885</v>
+      </c>
+      <c r="E95">
+        <v>1840.05</v>
+      </c>
+      <c r="F95">
+        <v>1846.85</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1857.3</v>
+      </c>
+      <c r="H95">
+        <v>1863.9500950570391</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1878.4849443734549</v>
+      </c>
+      <c r="K95">
+        <v>1830.5166678011635</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>50.723282641473034</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6.7999999999999545</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>44.950000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.15127919911012119</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1835.1875317080373</v>
+      </c>
+      <c r="W95">
+        <v>1784.6432332656207</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>50.544298442416675</v>
+      </c>
+      <c r="Y95">
+        <v>52.048664428199189</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1852</v>
+      </c>
+      <c r="D96">
+        <v>1889</v>
+      </c>
+      <c r="E96">
+        <v>1850.15</v>
+      </c>
+      <c r="F96">
+        <v>1863</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1867.3833333333332</v>
+      </c>
+      <c r="H96">
+        <v>1865.6667141951862</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1880.8216234015761</v>
+      </c>
+      <c r="K96">
+        <v>1834.8796305120161</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>57.300864580501212</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>12.849999999999909</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>38.849999999999909</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.33075933075932917</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1839.4663729837239</v>
+      </c>
+      <c r="W96">
+        <v>1790.4474382089081</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>49.018934774815762</v>
+      </c>
+      <c r="Y96">
+        <v>51.442718497522506</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1859.95</v>
+      </c>
+      <c r="D97">
+        <v>1859.95</v>
+      </c>
+      <c r="E97">
+        <v>1836.45</v>
+      </c>
+      <c r="F97">
+        <v>1846.2</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1847.5333333333335</v>
+      </c>
+      <c r="H97">
+        <v>1856.6000237642597</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1876.1834848678925</v>
+      </c>
+      <c r="K97">
+        <v>1835.2286015093459</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>48.826172172819</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>9.75</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>23.5</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.41489361702127658</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1840.5023156016125</v>
+      </c>
+      <c r="W97">
+        <v>1794.5772576008408</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>45.925058000771742</v>
+      </c>
+      <c r="Y97">
+        <v>50.339186398172352</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1854</v>
+      </c>
+      <c r="D98">
+        <v>1874</v>
+      </c>
+      <c r="E98">
+        <v>1849.2</v>
+      </c>
+      <c r="F98">
+        <v>1852.65</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1858.6166666666668</v>
+      </c>
+      <c r="H98">
+        <v>1857.6083452154633</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1875.6982660083609</v>
+      </c>
+      <c r="K98">
+        <v>1838.3333567294912</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>52.217662675725116</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.4500000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>24.799999999999955</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.13911290322580855</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1842.3711901244415</v>
+      </c>
+      <c r="W98">
+        <v>1798.8789422230006</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>43.492247901440805</v>
+      </c>
+      <c r="Y98">
+        <v>48.96979869882604</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1858.2</v>
+      </c>
+      <c r="D99">
+        <v>1947</v>
+      </c>
+      <c r="E99">
+        <v>1850.6</v>
+      </c>
+      <c r="F99">
+        <v>1931.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1909.8500000000001</v>
+      </c>
+      <c r="H99">
+        <v>1883.7291726077317</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1891.5430957842807</v>
+      </c>
+      <c r="K99">
+        <v>1841.059277456271</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>76.32794094759555</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>81.350000000000136</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>96.400000000000091</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.8438796680497932</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1856.152545489912</v>
+      </c>
+      <c r="W99">
+        <v>1808.7360576138894</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>47.416487876022529</v>
+      </c>
+      <c r="Y99">
+        <v>48.659136534265336</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1934</v>
+      </c>
+      <c r="D100">
+        <v>1934</v>
+      </c>
+      <c r="E100">
+        <v>1850</v>
+      </c>
+      <c r="F100">
+        <v>1855</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1879.6666666666667</v>
+      </c>
+      <c r="H100">
+        <v>1881.6979196371992</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1900.9779633877738</v>
+      </c>
+      <c r="K100">
+        <v>1843.0461046882108</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>47.348644675616733</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>84</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1855.9752307991562</v>
+      </c>
+      <c r="W100">
+        <v>1812.163016309157</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>43.812214489999178</v>
+      </c>
+      <c r="Y100">
+        <v>47.689752125412106</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1862</v>
+      </c>
+      <c r="D101">
+        <v>1881</v>
+      </c>
+      <c r="E101">
+        <v>1803.5</v>
+      </c>
+      <c r="F101">
+        <v>1818</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1834.1666666666667</v>
+      </c>
+      <c r="H101">
+        <v>1857.932293151933</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1896.5384159682685</v>
+      </c>
+      <c r="K101">
+        <v>1834.2580814241639</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>38.55138541903559</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>14.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>77.5</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.18709677419354839</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>1850.1328875992861</v>
+      </c>
+      <c r="W101">
+        <v>1812.5953854714417</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>37.537502127844391</v>
+      </c>
+      <c r="Y101">
+        <v>45.659302125898563</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1817</v>
+      </c>
+      <c r="D102">
+        <v>1817</v>
+      </c>
+      <c r="E102">
+        <v>1701.15</v>
+      </c>
+      <c r="F102">
+        <v>1709</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1742.3833333333332</v>
+      </c>
+      <c r="H102">
+        <v>1800.157813242633</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1878.8632124197643</v>
+      </c>
+      <c r="K102">
+        <v>1804.6785077743498</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>22.890208959710336</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>7.8499999999999091</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>115.84999999999991</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>6.7760034527405394E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1828.4201356609344</v>
+      </c>
+      <c r="W102">
+        <v>1804.9216532142977</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>23.498482446636672</v>
+      </c>
+      <c r="Y102">
+        <v>41.227138190046183</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>1803.8000000000002</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>1772.75</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>1759.1000000000001</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>1745.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1719.8</v>
+      </c>
+      <c r="D103">
+        <v>1724.5</v>
+      </c>
+      <c r="E103">
+        <v>1650</v>
+      </c>
+      <c r="F103">
+        <v>1669</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1681.1666666666667</v>
+      </c>
+      <c r="H103">
+        <v>1740.66223995465</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1844.5602763264833</v>
+      </c>
+      <c r="K103">
+        <v>1770.3055060467166</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>19.294661237351615</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>74.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.25503355704697989</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1803.8939609438676</v>
+      </c>
+      <c r="W103">
+        <v>1794.8533826058313</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>9.0405783380363118</v>
+      </c>
+      <c r="Y103">
+        <v>34.789826219644212</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1665.1</v>
+      </c>
+      <c r="D104">
+        <v>1719.9</v>
+      </c>
+      <c r="E104">
+        <v>1649</v>
+      </c>
+      <c r="F104">
+        <v>1689</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1685.9666666666665</v>
+      </c>
+      <c r="H104">
+        <v>1713.3144533106583</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1816.8579926983759</v>
+      </c>
+      <c r="K104">
+        <v>1743.3487269252239</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>26.509498330919524</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>70.900000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.56417489421720657</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1786.2179669525033</v>
+      </c>
+      <c r="W104">
+        <v>1787.0123913016955</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.7944243491922407</v>
+      </c>
+      <c r="Y104">
+        <v>27.67297610587692</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1702.7</v>
+      </c>
+      <c r="D105">
+        <v>1728.8</v>
+      </c>
+      <c r="E105">
+        <v>1631.2</v>
+      </c>
+      <c r="F105">
+        <v>1641</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1667</v>
+      </c>
+      <c r="H105">
+        <v>1690.1572266553292</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1797.2895498765147</v>
+      </c>
+      <c r="K105">
+        <v>1718.4267876085075</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>20.903382294341576</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>97.599999999999909</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.1004098360655734</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1763.8767412675027</v>
+      </c>
+      <c r="W105">
+        <v>1776.1966586126809</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-12.319917345178283</v>
+      </c>
+      <c r="Y105">
+        <v>19.674397415665879</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1717.65</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1691.5</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1680</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1668.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1652</v>
+      </c>
+      <c r="D106">
+        <v>1687.25</v>
+      </c>
+      <c r="E106">
+        <v>1625</v>
+      </c>
+      <c r="F106">
+        <v>1641</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1651.0833333333333</v>
+      </c>
+      <c r="H106">
+        <v>1670.6202799943312</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1772.8363165706226</v>
+      </c>
+      <c r="K106">
+        <v>1697.6652792510615</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>20.903382294341576</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>62.25</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.25702811244979917</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1744.9726272263483</v>
+      </c>
+      <c r="W106">
+        <v>1766.182091308038</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-21.209464081689703</v>
+      </c>
+      <c r="Y106">
+        <v>11.497625116194763</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1649</v>
+      </c>
+      <c r="D107">
+        <v>1653.6</v>
+      </c>
+      <c r="E107">
+        <v>1562.4</v>
+      </c>
+      <c r="F107">
+        <v>1584.9</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1600.3</v>
+      </c>
+      <c r="H107">
+        <v>1635.4601399971657</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1746.3393573327064</v>
+      </c>
+      <c r="K107">
+        <v>1667.6063283063811</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>15.079726596741979</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>22.5</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>91.199999999999818</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.24671052631578996</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1720.3460691915254</v>
+      </c>
+      <c r="W107">
+        <v>1752.7537882481834</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-32.407719056657925</v>
+      </c>
+      <c r="Y107">
+        <v>2.716556281624225</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
